--- a/vanguard/vg_nav_data/VGIT_nav_prices.xlsx
+++ b/vanguard/vg_nav_data/VGIT_nav_prices.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B3501"/>
+  <dimension ref="A1:B3502"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -42445,6 +42445,18 @@
         </is>
       </c>
     </row>
+    <row r="3502">
+      <c r="A3502" t="inlineStr">
+        <is>
+          <t>10/30/2023</t>
+        </is>
+      </c>
+      <c r="B3502" t="inlineStr">
+        <is>
+          <t>$56.56</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/vanguard/vg_nav_data/VGIT_nav_prices.xlsx
+++ b/vanguard/vg_nav_data/VGIT_nav_prices.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B3502"/>
+  <dimension ref="A1:B3506"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -42457,6 +42457,54 @@
         </is>
       </c>
     </row>
+    <row r="3503">
+      <c r="A3503" t="inlineStr">
+        <is>
+          <t>10/31/2023</t>
+        </is>
+      </c>
+      <c r="B3503" t="inlineStr">
+        <is>
+          <t>$56.48</t>
+        </is>
+      </c>
+    </row>
+    <row r="3504">
+      <c r="A3504" t="inlineStr">
+        <is>
+          <t>11/01/2023</t>
+        </is>
+      </c>
+      <c r="B3504" t="inlineStr">
+        <is>
+          <t>$56.78</t>
+        </is>
+      </c>
+    </row>
+    <row r="3505">
+      <c r="A3505" t="inlineStr">
+        <is>
+          <t>11/02/2023</t>
+        </is>
+      </c>
+      <c r="B3505" t="inlineStr">
+        <is>
+          <t>$56.92</t>
+        </is>
+      </c>
+    </row>
+    <row r="3506">
+      <c r="A3506" t="inlineStr">
+        <is>
+          <t>11/03/2023</t>
+        </is>
+      </c>
+      <c r="B3506" t="inlineStr">
+        <is>
+          <t>$57.30</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/vanguard/vg_nav_data/VGIT_nav_prices.xlsx
+++ b/vanguard/vg_nav_data/VGIT_nav_prices.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B3506"/>
+  <dimension ref="A1:B3509"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -42505,6 +42505,42 @@
         </is>
       </c>
     </row>
+    <row r="3507">
+      <c r="A3507" t="inlineStr">
+        <is>
+          <t>11/06/2023</t>
+        </is>
+      </c>
+      <c r="B3507" t="inlineStr">
+        <is>
+          <t>$57.07</t>
+        </is>
+      </c>
+    </row>
+    <row r="3508">
+      <c r="A3508" t="inlineStr">
+        <is>
+          <t>11/07/2023</t>
+        </is>
+      </c>
+      <c r="B3508" t="inlineStr">
+        <is>
+          <t>$57.25</t>
+        </is>
+      </c>
+    </row>
+    <row r="3509">
+      <c r="A3509" t="inlineStr">
+        <is>
+          <t>11/08/2023</t>
+        </is>
+      </c>
+      <c r="B3509" t="inlineStr">
+        <is>
+          <t>$57.35</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/vanguard/vg_nav_data/VGIT_nav_prices.xlsx
+++ b/vanguard/vg_nav_data/VGIT_nav_prices.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B3509"/>
+  <dimension ref="A1:B3510"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -42541,6 +42541,18 @@
         </is>
       </c>
     </row>
+    <row r="3510">
+      <c r="A3510" t="inlineStr">
+        <is>
+          <t>11/09/2023</t>
+        </is>
+      </c>
+      <c r="B3510" t="inlineStr">
+        <is>
+          <t>$56.96</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/vanguard/vg_nav_data/VGIT_nav_prices.xlsx
+++ b/vanguard/vg_nav_data/VGIT_nav_prices.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B3510"/>
+  <dimension ref="A1:B3511"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -42553,6 +42553,18 @@
         </is>
       </c>
     </row>
+    <row r="3511">
+      <c r="A3511" t="inlineStr">
+        <is>
+          <t>11/10/2023</t>
+        </is>
+      </c>
+      <c r="B3511" t="inlineStr">
+        <is>
+          <t>$56.99</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/vanguard/vg_nav_data/VGIT_nav_prices.xlsx
+++ b/vanguard/vg_nav_data/VGIT_nav_prices.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B3511"/>
+  <dimension ref="A1:B3521"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -42565,6 +42565,126 @@
         </is>
       </c>
     </row>
+    <row r="3512">
+      <c r="A3512" t="inlineStr">
+        <is>
+          <t>11/13/2023</t>
+        </is>
+      </c>
+      <c r="B3512" t="inlineStr">
+        <is>
+          <t>$57.01</t>
+        </is>
+      </c>
+    </row>
+    <row r="3513">
+      <c r="A3513" t="inlineStr">
+        <is>
+          <t>11/14/2023</t>
+        </is>
+      </c>
+      <c r="B3513" t="inlineStr">
+        <is>
+          <t>$57.63</t>
+        </is>
+      </c>
+    </row>
+    <row r="3514">
+      <c r="A3514" t="inlineStr">
+        <is>
+          <t>11/15/2023</t>
+        </is>
+      </c>
+      <c r="B3514" t="inlineStr">
+        <is>
+          <t>$57.33</t>
+        </is>
+      </c>
+    </row>
+    <row r="3515">
+      <c r="A3515" t="inlineStr">
+        <is>
+          <t>11/16/2023</t>
+        </is>
+      </c>
+      <c r="B3515" t="inlineStr">
+        <is>
+          <t>$57.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="3516">
+      <c r="A3516" t="inlineStr">
+        <is>
+          <t>11/17/2023</t>
+        </is>
+      </c>
+      <c r="B3516" t="inlineStr">
+        <is>
+          <t>$57.60</t>
+        </is>
+      </c>
+    </row>
+    <row r="3517">
+      <c r="A3517" t="inlineStr">
+        <is>
+          <t>11/20/2023</t>
+        </is>
+      </c>
+      <c r="B3517" t="inlineStr">
+        <is>
+          <t>$57.66</t>
+        </is>
+      </c>
+    </row>
+    <row r="3518">
+      <c r="A3518" t="inlineStr">
+        <is>
+          <t>11/21/2023</t>
+        </is>
+      </c>
+      <c r="B3518" t="inlineStr">
+        <is>
+          <t>$57.72</t>
+        </is>
+      </c>
+    </row>
+    <row r="3519">
+      <c r="A3519" t="inlineStr">
+        <is>
+          <t>11/22/2023</t>
+        </is>
+      </c>
+      <c r="B3519" t="inlineStr">
+        <is>
+          <t>$57.68</t>
+        </is>
+      </c>
+    </row>
+    <row r="3520">
+      <c r="A3520" t="inlineStr">
+        <is>
+          <t>11/24/2023</t>
+        </is>
+      </c>
+      <c r="B3520" t="inlineStr">
+        <is>
+          <t>$57.51</t>
+        </is>
+      </c>
+    </row>
+    <row r="3521">
+      <c r="A3521" t="inlineStr">
+        <is>
+          <t>11/27/2023</t>
+        </is>
+      </c>
+      <c r="B3521" t="inlineStr">
+        <is>
+          <t>$57.80</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
